--- a/AfDD_DDAf_2020_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2020_TabIndsCodes.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2020_TabIndsCodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2020_TabIndsCodes!$A$1:$C$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2020_TabIndsCodes!$A$1:$C$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="545">
   <si>
     <t>IndCode</t>
   </si>
@@ -45,7 +45,7 @@
     <t>PPPGDP</t>
   </si>
   <si>
-    <t>Nominal gross domestic product in purchasing-power-parity dollars</t>
+    <t>Nominal gross domestic product in purchasing-power-parity dollars (millions)</t>
   </si>
   <si>
     <t>Produit intérieur brut nominal en dollars US en parité de pouvoir d'achat</t>
@@ -54,7 +54,7 @@
     <t>NGDPD</t>
   </si>
   <si>
-    <t>Gross domestic product in U.S. dollars</t>
+    <t>Gross domestic product in U.S. dollars (millions)</t>
   </si>
   <si>
     <t>Produit intérieur brut en dollars américains</t>
@@ -63,7 +63,7 @@
     <t>RealGDPGrowth</t>
   </si>
   <si>
-    <t>Real GDP Growth (%)</t>
+    <t>Real GDP growth (%)</t>
   </si>
   <si>
     <t>Croissance réelle du PIB (%)</t>
@@ -78,16 +78,16 @@
     <t>PIB en parité de pouvoir d'achat (PPA) en dollars US par habitant</t>
   </si>
   <si>
-    <t>EmpPopTot</t>
-  </si>
-  <si>
-    <t>Employment as % of population 15+</t>
-  </si>
-  <si>
-    <t>Emploi en % de la population de 15 ans et plus</t>
-  </si>
-  <si>
-    <t>SIPOVGINI</t>
+    <t>EmpRateTot</t>
+  </si>
+  <si>
+    <t>Employment as a % of population 15+</t>
+  </si>
+  <si>
+    <t>Emploi en % de la population âgée de 15 ans et plus</t>
+  </si>
+  <si>
+    <t>GINI</t>
   </si>
   <si>
     <t>Gini coefficient (World Bank estimate)</t>
@@ -141,106 +141,922 @@
     <t>Croissance réelle du PIB par habitant (%)</t>
   </si>
   <si>
-    <t>NYGDPPETRRTZS</t>
+    <t>PopUrban</t>
+  </si>
+  <si>
+    <t>Urban Population (thousands)</t>
+  </si>
+  <si>
+    <t>Population urbaine (milliers)</t>
+  </si>
+  <si>
+    <t>PopRural</t>
+  </si>
+  <si>
+    <t>Rural Population (thousands)</t>
+  </si>
+  <si>
+    <t>Population rurale (milliers)</t>
+  </si>
+  <si>
+    <t>IntermCitPop</t>
+  </si>
+  <si>
+    <t>Population living in urban agglomerations of 300,000 to 1 million inhabitants (thousands)</t>
+  </si>
+  <si>
+    <t>Population vivant dans des agglomérations urbaines de 300,000 à un million d'habitants (milliers)</t>
+  </si>
+  <si>
+    <t>IntermCitNum</t>
+  </si>
+  <si>
+    <t>Number of urban agglomerations of 300,000 to 1 million inhabitants</t>
+  </si>
+  <si>
+    <t>Nombre d'agglomérations urbaines de 300 000 à un million d'habitants</t>
+  </si>
+  <si>
+    <t>PrimCitPop</t>
+  </si>
+  <si>
+    <t>Population living in urban agglomerations of over 1 million inhabitants (thousands)</t>
+  </si>
+  <si>
+    <t>Population vivant dans des agglomérations urbaines de plus d'un million d'habitants (milliers)</t>
+  </si>
+  <si>
+    <t>PrimCitNum</t>
+  </si>
+  <si>
+    <t>Number of urban agglomerations of over 1 million inhabitants</t>
+  </si>
+  <si>
+    <t>Nombre d'agglomérations urbaines de plus d'un million d'habitants</t>
+  </si>
+  <si>
+    <t>OldDepRatio</t>
+  </si>
+  <si>
+    <t>Old-age dependency ratio 65+/(15-64)*100</t>
+  </si>
+  <si>
+    <t>Taux de dépendance des personnes âgées 65+/(15-64)*100</t>
+  </si>
+  <si>
+    <t>ChildDepRatio</t>
+  </si>
+  <si>
+    <t>Child dependency ratio &lt;15/(15-64)*100</t>
+  </si>
+  <si>
+    <t>Taux de dépendance des enfants à charge &lt;15/(15-64)*100</t>
+  </si>
+  <si>
+    <t>TotDepRatio</t>
+  </si>
+  <si>
+    <t>Total dependency ratio (Child dependency ratio + Old-age dependency ratio)</t>
+  </si>
+  <si>
+    <t>Taux de dépendance total (taux de dépendance des enfants à charge + taux de dépendance des personnes âgées)</t>
+  </si>
+  <si>
+    <t>LitRt15T24</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, both sexes (%)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, les deux sexes (%)</t>
+  </si>
+  <si>
+    <t>LitRt15T24F</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, female (%)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe féminin (%)</t>
+  </si>
+  <si>
+    <t>LitRt15T24M</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, male (%)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe masculin (%)</t>
+  </si>
+  <si>
+    <t>LitRt15T24GPIA</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, adjusted gender parity index (GPIA)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, indice ajusté de parité entre les sexes (IPSA)</t>
+  </si>
+  <si>
+    <t>LitRt15T99</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, both sexes (%)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, les deux sexes (%)</t>
+  </si>
+  <si>
+    <t>LitRt15T99F</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, de sexe féminin (%)</t>
+  </si>
+  <si>
+    <t>LitRt15T99M</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, de sexe masculin (%)</t>
+  </si>
+  <si>
+    <t>LitRt15T99GPIA</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, adjusted gender parity index (GPIA)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, indice ajusté de parité hommes-femmes (IPSA)</t>
+  </si>
+  <si>
+    <t>WittMedLowEd15PL</t>
+  </si>
+  <si>
+    <t>Percentage of population 15+ with less than primary education (medium scenario)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population de 15 ans et plus n'ayant pas atteint le niveau primaire (scénario moyen)</t>
+  </si>
+  <si>
+    <t>WittMedPrim15PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population 15+ with primary but not secondary education (medium scenario) </t>
+  </si>
+  <si>
+    <t>Pourcentage de la population de 15 ans et plus ayant une éducation primaire mais pas secondaire (scénario moyen)</t>
+  </si>
+  <si>
+    <t>WittMedScndPL15PL</t>
+  </si>
+  <si>
+    <t>Percentage of population 15+ with at least secondary education (medium scenario)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population de 15 ans et plus ayant au moins une éducation secondaire (scénario moyen)</t>
+  </si>
+  <si>
+    <t>WittAcclLowEd15PL</t>
+  </si>
+  <si>
+    <t>Percentage of population 15+ with less than primary education (accelerated scenario)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population âgée de 15 ans et plus n'ayant pas terminé l'enseignement primaire (scénario accéléré)</t>
+  </si>
+  <si>
+    <t>WittAcclPrim15PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population 15+ with primary but not secondary education (accelerated scenario) </t>
+  </si>
+  <si>
+    <t>Pourcentage de la population âgée de 15 ans et plus ayant une éducation primaire mais pas secondaire (scénario accéléré)</t>
+  </si>
+  <si>
+    <t>WittAcclScndPL15PL</t>
+  </si>
+  <si>
+    <t>Percentage of population 15+ with at least secondary education (accelerated scenario)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population âgée de 15 ans et plus ayant au moins une éducation secondaire (scénario accéléré)</t>
+  </si>
+  <si>
+    <t>WittMedLowEd1529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 15-29 with less than primary education (medium scenario) </t>
+  </si>
+  <si>
+    <t>Population âgée de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario moyen)</t>
+  </si>
+  <si>
+    <t>WittMedPrim1529</t>
+  </si>
+  <si>
+    <t>Percentage of population aged 15-29 with primary but not secondary education (medium scenario)</t>
+  </si>
+  <si>
+    <t>Population âgée de 15 à 29 ans ayant une éducation primaire mais pas secondaire (scénario moyen)</t>
+  </si>
+  <si>
+    <t>WittMedScndPL1529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 15-29 with at least secondary education (medium scenario) </t>
+  </si>
+  <si>
+    <t>Population âgée de 15 à 29 ans ayant au moins une éducation secondaire (scénario moyen)</t>
+  </si>
+  <si>
+    <t>WittAcclLowEd1529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 15-29 with less than primary education (accelerated scenario) </t>
+  </si>
+  <si>
+    <t>Population âgée de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario accéléré)</t>
+  </si>
+  <si>
+    <t>WittAcclPrim1529</t>
+  </si>
+  <si>
+    <t>Percentage of population aged 15-29 with primary but not secondary education (accelerated scenario)</t>
+  </si>
+  <si>
+    <t>Population âgée de 15 à 29 ans ayant une éducation primaire mais pas secondaire (scénario accéléré)</t>
+  </si>
+  <si>
+    <t>WittAcclScndPL1529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 15-29 with at least secondary education (accelerated scenario) </t>
+  </si>
+  <si>
+    <t>Population âgée de 15 à 29 ans ayant au moins une éducation secondaire (scénario accéléré)</t>
+  </si>
+  <si>
+    <t>EmpRateFemale</t>
+  </si>
+  <si>
+    <t>Employment as a % of population 15+, females</t>
+  </si>
+  <si>
+    <t>Emploi en % de la population âgée de 15 ans et plus, de sexe féminin</t>
+  </si>
+  <si>
+    <t>EmpRateMale</t>
+  </si>
+  <si>
+    <t>Employment as a % of population 15+, males</t>
+  </si>
+  <si>
+    <t>Emploi en % de la population âgée de 15 ans et plus, de sexe masculin</t>
+  </si>
+  <si>
+    <t>VulnRate</t>
+  </si>
+  <si>
+    <t>Percentage of workers in vulnerable employment</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs ayant un emploi vulnérable</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Percentage of workers aged 15+ classified as employees</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme salariés</t>
+  </si>
+  <si>
+    <t>Employers</t>
+  </si>
+  <si>
+    <t>Percentage of workers aged 15+ classified as employers</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme employeurs</t>
+  </si>
+  <si>
+    <t>OwnAccount</t>
+  </si>
+  <si>
+    <t>Percentage of workers aged 15+ classified as own-account workers</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme travailleurs à leur propre compte</t>
+  </si>
+  <si>
+    <t>ContribFamily</t>
+  </si>
+  <si>
+    <t>Percentage of workers aged 15+ classified as contributing family workers</t>
+  </si>
+  <si>
+    <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme travailleurs familiaux contributeurs</t>
+  </si>
+  <si>
+    <t>OilRent</t>
   </si>
   <si>
     <t>Oil rents (% of GDP)</t>
   </si>
   <si>
-    <t>Bénéfices tirés du pétrole (% du PIB)</t>
-  </si>
-  <si>
-    <t>NYGDPMINRRTZS</t>
+    <t>Rente pétroliere (% du PIB)</t>
+  </si>
+  <si>
+    <t>MinRent</t>
   </si>
   <si>
     <t>Mineral rents (% of GDP)</t>
   </si>
   <si>
-    <t>Bénéfices tirés des minéraux (% du PIB)</t>
-  </si>
-  <si>
-    <t>NYGDPTOTLRTZS</t>
+    <t>Rente tirée des minéraux (% du PIB)</t>
+  </si>
+  <si>
+    <t>TotNRRent</t>
   </si>
   <si>
     <t>Total natural resources rents (% of GDP)</t>
   </si>
   <si>
-    <t>Total des bénéfices tirés des ressources naturelles (% du PIB)</t>
-  </si>
-  <si>
-    <t>NVAGRTOTLZS</t>
-  </si>
-  <si>
-    <t>Agriculture, forestry, and fishing, value added (% of GDP)</t>
-  </si>
-  <si>
-    <t>Agriculture, sylviculture et pêche, valeur ajoutée (% du PIB)</t>
-  </si>
-  <si>
-    <t>NVINDMANFZS</t>
-  </si>
-  <si>
-    <t>Manufacturing, value added (% of GDP)</t>
-  </si>
-  <si>
-    <t>Fabrication, valeur ajoutée (% du PIB)</t>
-  </si>
-  <si>
-    <t>NVINDTOTLZS</t>
-  </si>
-  <si>
-    <t>Industry (including construction), value added (% of GDP)</t>
-  </si>
-  <si>
-    <t>Industrie (y compris construction), valeur ajoutée (% du PIB)</t>
-  </si>
-  <si>
-    <t>NVSRVTOTLZS</t>
-  </si>
-  <si>
-    <t>Services, value added (% of GDP)</t>
-  </si>
-  <si>
-    <t>Services, valeur ajoutée (% du PIB)</t>
-  </si>
-  <si>
-    <t>EmpAgr</t>
-  </si>
-  <si>
-    <t>Employment in agriculture as % of total</t>
+    <t>Rente tirée des ressources naturelles totales (% du PIB)</t>
+  </si>
+  <si>
+    <t>AgrFrPerGDP</t>
+  </si>
+  <si>
+    <t>Agriculture, hunting, forestry, fishing: value added (% of GDP)</t>
+  </si>
+  <si>
+    <t>Agriculture, chasse, sylviculture, pêche: valeur ajoutée (% du PIB)</t>
+  </si>
+  <si>
+    <t>MnIndPerGDP</t>
+  </si>
+  <si>
+    <t>Mining, Manufacturing, Utilities: value added (% of GDP)</t>
+  </si>
+  <si>
+    <t>Mines, fabrication, services publics: valeur ajoutée (% du PIB)</t>
+  </si>
+  <si>
+    <t>CnstrPerGDP</t>
+  </si>
+  <si>
+    <t>Construction: value added (% of GDP)</t>
+  </si>
+  <si>
+    <t>Construction: valeur ajoutée (% du PIB)</t>
+  </si>
+  <si>
+    <t>TrdHsPerGDP</t>
+  </si>
+  <si>
+    <t>Wholesale, retail trade, restaurants and hotels: value added (% of GDP)</t>
+  </si>
+  <si>
+    <t>Commerce de gros, commerce de détail, restaurants et hôtels: valeur ajoutée (% du PIB)</t>
+  </si>
+  <si>
+    <t>TnsCmPerGDP</t>
+  </si>
+  <si>
+    <t>Transport, storage and communication: value added (% of GDP)</t>
+  </si>
+  <si>
+    <t>Transport, stockage et communication: valeur ajoutée (% du PIB)</t>
+  </si>
+  <si>
+    <t>OtherPerGDP</t>
+  </si>
+  <si>
+    <t>Other activities: value added (% of GDP)</t>
+  </si>
+  <si>
+    <t>Autres activités: valeur ajoutée (% du PIB)</t>
+  </si>
+  <si>
+    <t>ManufPerGDP</t>
+  </si>
+  <si>
+    <t>Manufacturing (included in industry): value added (% of GDP)</t>
+  </si>
+  <si>
+    <t>Fabrication (incluse dans l'industrie): valeur ajoutée (% du PIB)</t>
+  </si>
+  <si>
+    <t>AgrEmpPerTot</t>
+  </si>
+  <si>
+    <t>Employment in agriculture as a % of total</t>
   </si>
   <si>
     <t>Emploi dans l'agriculture en % du total</t>
   </si>
   <si>
-    <t>EmpInd</t>
-  </si>
-  <si>
-    <t>Employment in industry as % of total</t>
+    <t>IndEmpPerTot</t>
+  </si>
+  <si>
+    <t>Employment in industry as a % of total</t>
   </si>
   <si>
     <t>Emploi dans l'industrie en % du total</t>
   </si>
   <si>
-    <t>EmpManf</t>
-  </si>
-  <si>
-    <t>Employment in manufacturing as % of total</t>
-  </si>
-  <si>
-    <t>Emploi dans la fabrication en % du total</t>
-  </si>
-  <si>
-    <t>EmpServ</t>
-  </si>
-  <si>
-    <t>Employment in services as % of total</t>
+    <t>SrvEmpPerTot</t>
+  </si>
+  <si>
+    <t>Employment in services as a % of total</t>
   </si>
   <si>
     <t>Emploi dans les services en % du total</t>
   </si>
   <si>
-    <t>consumptionp</t>
+    <t>ManfEmpPerTot</t>
+  </si>
+  <si>
+    <t>Employment in manufacturing (incl. in industry) as a % of total</t>
+  </si>
+  <si>
+    <t>Emploi dans le secteur manufacturier (y compris dans l'industrie) en % du total</t>
+  </si>
+  <si>
+    <t>PovHC320</t>
+  </si>
+  <si>
+    <t>% of population below LMIC poverty rates ($3.20 a day)</t>
+  </si>
+  <si>
+    <t>% de la population vivant sous 3.20 USD par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure</t>
+  </si>
+  <si>
+    <t>PovHC550</t>
+  </si>
+  <si>
+    <t>% of population below UMIC poverty rates ($5.50 a day)</t>
+  </si>
+  <si>
+    <t>% de la population vivant sous 3.20 USD par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure</t>
+  </si>
+  <si>
+    <t>ShareTop20</t>
+  </si>
+  <si>
+    <t>Income share held by the 20% of the population with highest incomes</t>
+  </si>
+  <si>
+    <t>Part des revenus détenus par les 20% de la population ayant les revenus les plus élevés (estimation de la Banque mondiale)</t>
+  </si>
+  <si>
+    <t>WrkPovRate15PL</t>
+  </si>
+  <si>
+    <t>Working poverty rate, both sexes (population 15+)</t>
+  </si>
+  <si>
+    <t>Taux de pauvreté des travailleurs, les deux sexes (population de 15 ans et plus)</t>
+  </si>
+  <si>
+    <t>WrkPovRateFem15PL</t>
+  </si>
+  <si>
+    <t>Working poverty rate, females (population 15+)</t>
+  </si>
+  <si>
+    <t>Taux de pauvreté des travailleurs, de sexe féminin (population de 15 ans et plus)</t>
+  </si>
+  <si>
+    <t>WrkPovRateMal15PL</t>
+  </si>
+  <si>
+    <t>Working poverty rate, males (population 15+)</t>
+  </si>
+  <si>
+    <t>Taux de pauvreté des travailleurs, de sexe masculin (population de 15 ans et plus)</t>
+  </si>
+  <si>
+    <t>WrkPovRate1529</t>
+  </si>
+  <si>
+    <t>Working poverty rate, both sexes (population 15-29)</t>
+  </si>
+  <si>
+    <t>Taux de pauvreté des travailleurs, les deux sexes (population de 15 à 29 ans)</t>
+  </si>
+  <si>
+    <t>WrkPovRateFem1529</t>
+  </si>
+  <si>
+    <t>Working poverty rate, females (population 15-29)</t>
+  </si>
+  <si>
+    <t>Taux de pauvreté des travailleurs, de sexe féminin (population de 15 à 29 ans)</t>
+  </si>
+  <si>
+    <t>WrkPovRateMal1529</t>
+  </si>
+  <si>
+    <t>Working poverty rate, males (population 15-29)</t>
+  </si>
+  <si>
+    <t>Taux de pauvreté des travailleurs, de sexe masculin (population de 15 à 29 ans)</t>
+  </si>
+  <si>
+    <t>OutputPerWrkPPP</t>
+  </si>
+  <si>
+    <t>Output per worker (GDP constant 2011 international $ in PPP)</t>
+  </si>
+  <si>
+    <t>Production par travailleur (PIB en dollars internationaux constants de 2011 en PPA)</t>
+  </si>
+  <si>
+    <t>GDI</t>
+  </si>
+  <si>
+    <t>Gender Development Index (GDI)</t>
+  </si>
+  <si>
+    <t>Indice de développement de genre (IDG)</t>
+  </si>
+  <si>
+    <t>GII</t>
+  </si>
+  <si>
+    <t>Gender Inequality Index (GII)</t>
+  </si>
+  <si>
+    <t>L'Indice d'inégalité de genre (IIG)</t>
+  </si>
+  <si>
+    <t>SIGI</t>
+  </si>
+  <si>
+    <t>Social Institutions and Gender Index (SIGI) 2019</t>
+  </si>
+  <si>
+    <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes (SIGI)</t>
+  </si>
+  <si>
+    <t>SIGIFAM</t>
+  </si>
+  <si>
+    <t>Discrimination in the family (SIGI subindex) 2019</t>
+  </si>
+  <si>
+    <t>Discriminations au sein de la famille (sous-indice SIGI)</t>
+  </si>
+  <si>
+    <t>SIGIPHYS</t>
+  </si>
+  <si>
+    <t>Restricted physical integrity (SIGI subindex) 2019</t>
+  </si>
+  <si>
+    <t>Atteintes à l'intégrité physique (sous-indice SIGI)</t>
+  </si>
+  <si>
+    <t>SIGICIV</t>
+  </si>
+  <si>
+    <t>Restricted civil liberties (SIGI subindex) 2019</t>
+  </si>
+  <si>
+    <t>Atteintes aux libertés civiles (sous-indice SIGI)</t>
+  </si>
+  <si>
+    <t>SIGIRES</t>
+  </si>
+  <si>
+    <t>Restricted access to productive and financial resources (SIGI subindex) 2019</t>
+  </si>
+  <si>
+    <t>Accès restreint aux ressources productives et financières (sous-indice SIGI)</t>
+  </si>
+  <si>
+    <t>IntntSubsPer100</t>
+  </si>
+  <si>
+    <t>Fixed(wired)-broadband subscriptions per 100 inhabitants</t>
+  </si>
+  <si>
+    <t>Abonnements Internet à haut débit fixe</t>
+  </si>
+  <si>
+    <t>IntntUsePct</t>
+  </si>
+  <si>
+    <t>Percentage of the population using the Internet</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population utilisant l'Internet</t>
+  </si>
+  <si>
+    <t>MobileSubsPer100</t>
+  </si>
+  <si>
+    <t>Mobile-cellular telephone subscriptions per 100 inhabitants</t>
+  </si>
+  <si>
+    <t>Abonnements téléphone mobile et cellulaire par 100 habitants</t>
+  </si>
+  <si>
+    <t>PhoneSubsPer100</t>
+  </si>
+  <si>
+    <t>Fixed-telephone subscriptions per 100 inhabitants</t>
+  </si>
+  <si>
+    <t>Abonnements téléphone fixe par 100 habitants</t>
+  </si>
+  <si>
+    <t>MobBBSubsPer100</t>
+  </si>
+  <si>
+    <t>Mobile-broadband subscriptions per 100 inhabitants</t>
+  </si>
+  <si>
+    <t>Abonnements haut débit mobile pour 100 habitants</t>
+  </si>
+  <si>
+    <t>IntlBBSpeedMBits</t>
+  </si>
+  <si>
+    <t>International bandwidth, in megabytes per second</t>
+  </si>
+  <si>
+    <t>Bande passante internationale, en mégaoctets par seconde</t>
+  </si>
+  <si>
+    <t>GSMA4GCov</t>
+  </si>
+  <si>
+    <t>Percentage of inhabitants that live within 4G mobile technology coverage</t>
+  </si>
+  <si>
+    <t>Pourcentage d'habitants vivant dans une zone couverte par la technologie mobile 4G</t>
+  </si>
+  <si>
+    <t>IntntAccss</t>
+  </si>
+  <si>
+    <t>Access to internet (% of population aged 15+)</t>
+  </si>
+  <si>
+    <t>Accès à Internet (% de la population âgée de 15 ans et plus), 2016-18</t>
+  </si>
+  <si>
+    <t>OwnWSitLrgFm</t>
+  </si>
+  <si>
+    <t>Percentage of large firms using their own website</t>
+  </si>
+  <si>
+    <t>Pourcentage de grandes entreprises utilisant leur propre site Web</t>
+  </si>
+  <si>
+    <t>OwnWSitMedFm</t>
+  </si>
+  <si>
+    <t>Percentage of medium-sized firms using their own website</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises de taille moyenne utilisant leur propre site Web</t>
+  </si>
+  <si>
+    <t>OwnWSitSmlFm</t>
+  </si>
+  <si>
+    <t>Percentage of small firms using their own website</t>
+  </si>
+  <si>
+    <t>Pourcentage de petites entreprises utilisant leur propre site Web</t>
+  </si>
+  <si>
+    <t>OwnWSitTotFm</t>
+  </si>
+  <si>
+    <t>Percentage of firms of all sizes using their own website</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises de toutes tailles utilisant leur propre site Web</t>
+  </si>
+  <si>
+    <t>EmailLrgFm</t>
+  </si>
+  <si>
+    <t>Percentage of large firms using email to interact with clients/suppliers</t>
+  </si>
+  <si>
+    <t>Pourcentage de grandes entreprises utilisant le courrier électronique pour interagir avec leurs clients / fournisseurs</t>
+  </si>
+  <si>
+    <t>EmailMedFm</t>
+  </si>
+  <si>
+    <t>Percentage of medium-sized firms using email to interact with clients/suppliers</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises de taille moyenne utilisant le courrier électronique pour interagir avec leurs clients / fournisseurs</t>
+  </si>
+  <si>
+    <t>EmailSmlFm</t>
+  </si>
+  <si>
+    <t>Percentage of small firms using email to interact with clients/suppliers</t>
+  </si>
+  <si>
+    <t>Pourcentage de petites entreprises utilisant le courrier électronique pour interagir avec les clients / fournisseurs, mesure la plus récente</t>
+  </si>
+  <si>
+    <t>EmailTotFm</t>
+  </si>
+  <si>
+    <t>Percentage of firms of all sizes using email to interact with clients/suppliers</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises de toutes tailles utilisant le courrier électronique pour interagir avec les clients / fournisseurs</t>
+  </si>
+  <si>
+    <t>ExpICTSrv</t>
+  </si>
+  <si>
+    <t>Total exports of ICT services, millions of USD</t>
+  </si>
+  <si>
+    <t>Exportations totales de services TIC, millions USD</t>
+  </si>
+  <si>
+    <t>ExpICTSrvPrp</t>
+  </si>
+  <si>
+    <t>Percentage of total trade in services</t>
+  </si>
+  <si>
+    <t>Pourcentage du commerce total des services</t>
+  </si>
+  <si>
+    <t>ExpDigSrv</t>
+  </si>
+  <si>
+    <t>Total exports of digital services, millions of USD</t>
+  </si>
+  <si>
+    <t>Exportations totales de services numériques, millions USD</t>
+  </si>
+  <si>
+    <t>ExpDigSrvPrp</t>
+  </si>
+  <si>
+    <t>Exports of digital services as a % of total exports</t>
+  </si>
+  <si>
+    <t>Exportations de services numériques en % des exportations totales</t>
+  </si>
+  <si>
+    <t>B2CDevInd</t>
+  </si>
+  <si>
+    <t>UNCTAD B2C E-commerce Index</t>
+  </si>
+  <si>
+    <t>Indice du commerce électronique B2C de la CNUCED</t>
+  </si>
+  <si>
+    <t>LifeExpTot</t>
+  </si>
+  <si>
+    <t>Life expectancy at birth (years)</t>
+  </si>
+  <si>
+    <t>Espérance de vie à la naissance (années)</t>
+  </si>
+  <si>
+    <t>LifeExpMal</t>
+  </si>
+  <si>
+    <t>Male life expectancy at birth (years)</t>
+  </si>
+  <si>
+    <t>Espérance de vie des hommes à la naissance (années)</t>
+  </si>
+  <si>
+    <t>LifeExpFem</t>
+  </si>
+  <si>
+    <t>Female life expectancy at birth (years)</t>
+  </si>
+  <si>
+    <t>Espérance de vie des femmes à la naissance (années)</t>
+  </si>
+  <si>
+    <t>TotFert</t>
+  </si>
+  <si>
+    <t>Total fertility (live births per woman)</t>
+  </si>
+  <si>
+    <t>Taux de fécondité (naissances vivantes par femme)</t>
+  </si>
+  <si>
+    <t>Mort01</t>
+  </si>
+  <si>
+    <t>Infant mortality rate (infant deaths per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Taux de mortalité infantile (décès infantiles pour 1,000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mort05</t>
+  </si>
+  <si>
+    <t>Under-five mortality (deaths under age five per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortalité des moins de cinq ans (décès des moins de cinq ans pour 1,000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mort40</t>
+  </si>
+  <si>
+    <t>Probability of dying before age 40 (deaths under age 40 per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Probabilité de mourir avant 40 ans (morts avant l'âge de 40 ans pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>GHI</t>
+  </si>
+  <si>
+    <t>Global Hunger Index</t>
+  </si>
+  <si>
+    <t>Indice de la faim dans le monde</t>
+  </si>
+  <si>
+    <t>LifeLadder</t>
+  </si>
+  <si>
+    <t>Cantril life ladder</t>
+  </si>
+  <si>
+    <t>Échelle de satisfaction existentielle Cantril</t>
+  </si>
+  <si>
+    <t>NegativeAffect</t>
+  </si>
+  <si>
+    <t>Negative affect</t>
+  </si>
+  <si>
+    <t>Affect négatif</t>
+  </si>
+  <si>
+    <t>PositiveAffect</t>
+  </si>
+  <si>
+    <t>Positive affect</t>
+  </si>
+  <si>
+    <t>Affect positif</t>
+  </si>
+  <si>
+    <t>FreedomLife</t>
+  </si>
+  <si>
+    <t>Freedom to make life choices</t>
+  </si>
+  <si>
+    <t>Liberté de faire des choix de vie</t>
+  </si>
+  <si>
+    <t>Generosity</t>
+  </si>
+  <si>
+    <t>Générosité</t>
+  </si>
+  <si>
+    <t>SocialSupp</t>
+  </si>
+  <si>
+    <t>Social support</t>
+  </si>
+  <si>
+    <t>Soutien sociale</t>
+  </si>
+  <si>
+    <t>GrthDCmpNCP</t>
   </si>
   <si>
     <t>Consumption, private (% of GDP growth)</t>
@@ -249,7 +1065,7 @@
     <t>Consommation privée (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>consumptiong</t>
+    <t>GrthDCmpNCG</t>
   </si>
   <si>
     <t>Consumption, public (% of GDP growth)</t>
@@ -258,7 +1074,7 @@
     <t>Consommation publique (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>fcapp</t>
+    <t>GrthDCmpNFIP</t>
   </si>
   <si>
     <t>Gross fixed capital formation, private (% of GDP growth)</t>
@@ -267,7 +1083,7 @@
     <t>Formation brute de capital fixe, privé (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>fcapg</t>
+    <t>GrthDCmpNFIG</t>
   </si>
   <si>
     <t>Gross fixed capital formation, public (% of GDP growth)</t>
@@ -276,229 +1092,121 @@
     <t>Formation brute de capital fixe publique (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>exbalance</t>
-  </si>
-  <si>
-    <t>External balance (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Solde extérieur (% de croissance du PIB)</t>
-  </si>
-  <si>
-    <t>GGRPG</t>
-  </si>
-  <si>
-    <t>General government revenue as % of GDP</t>
+    <t>GrthDCmpNX</t>
+  </si>
+  <si>
+    <t>Exports of goods and services, current prices (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Exportations des biens et services, prix courants (% de croissance du PIB)</t>
+  </si>
+  <si>
+    <t>GrthDCmpNM</t>
+  </si>
+  <si>
+    <t>Imports of goods and services, current prices (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Importations de biens et services, prix courants (% de croissance du PIB)</t>
+  </si>
+  <si>
+    <t>GrthDCmpNFB</t>
+  </si>
+  <si>
+    <t>Foreign balance, current prices (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Balance extérieure, prix courants (% de croissance du PIB)</t>
+  </si>
+  <si>
+    <t>GovRevPerGDP</t>
+  </si>
+  <si>
+    <t>General government revenue as a % of GDP</t>
   </si>
   <si>
     <t>Recettes des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>GGRTPG</t>
-  </si>
-  <si>
-    <t>General government taxes as % of GDP</t>
+    <t>TaxPerGDP</t>
+  </si>
+  <si>
+    <t>General government taxes as a % of GDP</t>
   </si>
   <si>
     <t>Impôts des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>GGRGPG</t>
-  </si>
-  <si>
-    <t>General government revenue, grants as % of GDP</t>
+    <t>GrantsPerGDP</t>
+  </si>
+  <si>
+    <t>General government revenue, grants as a % of GDP</t>
   </si>
   <si>
     <t>Recettes des administrations publiques, dons en % du PIB</t>
   </si>
   <si>
-    <t>GGRCPG</t>
-  </si>
-  <si>
-    <t>General government commodity-related revenues as % of GDP</t>
+    <t>CommodityPerGDP</t>
+  </si>
+  <si>
+    <t>General government commodity-related revenues as a % of GDP</t>
   </si>
   <si>
     <t>Recettes des administrations publiques liées aux produits de base en % du PIB</t>
   </si>
   <si>
-    <t>GGXPG</t>
-  </si>
-  <si>
-    <t>General government expenditure as % of GDP</t>
+    <t>TaxIncPerGDP</t>
+  </si>
+  <si>
+    <t>General government taxes on income, profits, and capital gains as a % of GDP</t>
+  </si>
+  <si>
+    <t>Impôts des administrations publiques sur revenus, bénéfices et gains en capital en % du PIB</t>
+  </si>
+  <si>
+    <t>TaxGdsSrvPerGDP</t>
+  </si>
+  <si>
+    <t>General government taxes on goods and services as a % of GDP</t>
+  </si>
+  <si>
+    <t>Impôts des administrations publiques sur les biens et services en % du PIB</t>
+  </si>
+  <si>
+    <t>TaxTradePerGDP</t>
+  </si>
+  <si>
+    <t>General government taxes on international trade and transactions as a % of GDP</t>
+  </si>
+  <si>
+    <t>Impôts des administrations publiques sur les échanges internationaux en % du PIB</t>
+  </si>
+  <si>
+    <t>ExpendPerGDP</t>
+  </si>
+  <si>
+    <t>General government expenditure as a % of GDP</t>
   </si>
   <si>
     <t>Total des dépenses des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>GGRTIPG</t>
-  </si>
-  <si>
-    <t>General government taxes on income, profits, and capital gains as % of GDP</t>
-  </si>
-  <si>
-    <t>Impôts des administrations publiques sur revenus, bénéfices et gains en capital en % du PIB</t>
-  </si>
-  <si>
-    <t>GGRSSPG</t>
-  </si>
-  <si>
-    <t>General government revenue, social security contributions as % of GDP</t>
-  </si>
-  <si>
-    <t>Recettes des administrations publiques, cotisations de sécurité sociale en % du PIB</t>
-  </si>
-  <si>
-    <t>GGRTGSPG</t>
-  </si>
-  <si>
-    <t>General government taxes on goods and services as % of GDP</t>
-  </si>
-  <si>
-    <t>Impôts des administrations publiques sur les biens et services en % du PIB</t>
-  </si>
-  <si>
-    <t>GGRTTPG</t>
-  </si>
-  <si>
-    <t>General government taxes on international trade and transactions as % of GDP</t>
-  </si>
-  <si>
-    <t>Impôts des administrations publiques sur les échanges internationaux en % du PIB</t>
-  </si>
-  <si>
-    <t>GGXWDGPG</t>
-  </si>
-  <si>
-    <t>General government gross debt as % of GDP</t>
+    <t>GrossDebtPerGDP</t>
+  </si>
+  <si>
+    <t>General government gross debt as a % of GDP</t>
   </si>
   <si>
     <t>Dette brute des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>PovHC320</t>
-  </si>
-  <si>
-    <t>% of population below LMIC poverty rates ($3.20 a day)</t>
-  </si>
-  <si>
-    <t>% de la population vivant sous le seuil de pauvreté des PRMI (3.20 par jour, mesure la plus récente 2009-</t>
-  </si>
-  <si>
-    <t>PovHC550</t>
-  </si>
-  <si>
-    <t>% of population below UMIC poverty rates ($5.50 a day)</t>
-  </si>
-  <si>
-    <t>% de la population vivant sous le taux de pauvreté PRMS ($5.50 par jour, mesure la plus récente 2009-1</t>
-  </si>
-  <si>
-    <t>SIDST05TH20</t>
-  </si>
-  <si>
-    <t>Income share held by the 20% of the population with highest incomes</t>
-  </si>
-  <si>
-    <t>Part des revenus détenus par les 20% de la population ayant les revenus les plus élevés</t>
-  </si>
-  <si>
-    <t>GDI</t>
-  </si>
-  <si>
-    <t>Gender Development Index (GDI)</t>
-  </si>
-  <si>
-    <t>Indice de développement de genre (IDG)</t>
-  </si>
-  <si>
-    <t>GII</t>
-  </si>
-  <si>
-    <t>Gender Inequality Index (GII)</t>
-  </si>
-  <si>
-    <t>L'Indice d'inégalités de genre (IIG)</t>
-  </si>
-  <si>
-    <t>SIGI</t>
-  </si>
-  <si>
-    <t>Social Institutions and Gender Index (SIGI) 2019</t>
-  </si>
-  <si>
-    <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes (SIGI) 2019</t>
-  </si>
-  <si>
-    <t>SIGIFAM</t>
-  </si>
-  <si>
-    <t>Discrimination in the family (SIGI subindex) 2019</t>
-  </si>
-  <si>
-    <t>Discriminations au sein de la famille (sous-indice SIGI) 2019</t>
-  </si>
-  <si>
-    <t>SIGIPHYS</t>
-  </si>
-  <si>
-    <t>Restricted physical integrity (SIGI subindex) 2019</t>
-  </si>
-  <si>
-    <t>Atteintes à l'intégrité physique (sous-indice SIGI) 2019</t>
-  </si>
-  <si>
-    <t>SIGIRES</t>
-  </si>
-  <si>
-    <t>Restricted access to productive and financial resources (SIGI subindex) 2019</t>
-  </si>
-  <si>
-    <t>Accès restreint aux ressources productives et financières (sous-indice SIGI) 2019</t>
-  </si>
-  <si>
-    <t>SIGICIV</t>
-  </si>
-  <si>
-    <t>Restricted civil liberties (SIGI subindex) 2019</t>
-  </si>
-  <si>
-    <t>Atteintes aux libertés civiles (sous-indice SIGI) 2019</t>
-  </si>
-  <si>
-    <t>EmpPopMale</t>
-  </si>
-  <si>
-    <t>Employment as % of population 15+ (Males)</t>
-  </si>
-  <si>
-    <t>Emploi en % de la population de 15 ans et plus (hommes)</t>
-  </si>
-  <si>
-    <t>EmpPopFemale</t>
-  </si>
-  <si>
-    <t>Employment as % of population 15+ (Females)</t>
-  </si>
-  <si>
-    <t>Emploi en % de la population de 15 ans et plus (femmes)</t>
-  </si>
-  <si>
-    <t>VulnRate</t>
-  </si>
-  <si>
-    <t>Percentage of workers in vulnerable employment</t>
-  </si>
-  <si>
-    <t>Pourcentage de travailleurs ayant un emploi vulnérable</t>
-  </si>
-  <si>
     <t>ExpUnproc</t>
   </si>
   <si>
     <t>Total exports of unprocessed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits non transformés (millions de dollars US)</t>
+    <t>Exportations totales de produits non transformés (millions USD)</t>
   </si>
   <si>
     <t>ExpSemiProc</t>
@@ -507,7 +1215,7 @@
     <t>Total exports of semi-processed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits semi-transformés (millions de dollars US)</t>
+    <t>Exportations totales de produits semi-transformés (millions USD)</t>
   </si>
   <si>
     <t>ExpFullyProc</t>
@@ -516,7 +1224,7 @@
     <t>Total exports of fully processed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Total des exportations de produits transformés (millions de dollars US)</t>
+    <t>Total des exportations de produits transformés (millions USD)</t>
   </si>
   <si>
     <t>ExpAllProc</t>
@@ -525,7 +1233,7 @@
     <t>Total exports of processed and unprocessed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits transformés et non transformés (millions de dollars US)</t>
+    <t>Exportations totales de produits transformés et non transformés (millions USD)</t>
   </si>
   <si>
     <t>ImpUnproc</t>
@@ -564,51 +1272,78 @@
     <t>Importations totales de produits transformés et non transformés (millions de dollars US)</t>
   </si>
   <si>
-    <t>HerfIndex</t>
-  </si>
-  <si>
-    <t>Herfindahl Concentration Index of exports</t>
-  </si>
-  <si>
-    <t>Indice de Herfindahl de concentration des exportations</t>
-  </si>
-  <si>
-    <t>HerfIndexNorm</t>
-  </si>
-  <si>
-    <t>Normalized Herfindahl Concentration Index of exports</t>
-  </si>
-  <si>
-    <t>Indice de Herfindahl de concentration des exportations normalisé</t>
+    <t>ExpProdPct1</t>
+  </si>
+  <si>
+    <t>% of exports ascribed to 4-digit HS96 product category with highest level of exports</t>
+  </si>
+  <si>
+    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le plus haut niveau d'exportations</t>
+  </si>
+  <si>
+    <t>ExpProdPct2</t>
+  </si>
+  <si>
+    <t>% of exports ascribed to 4-digit HS96 product category with the second highest level of exports</t>
+  </si>
+  <si>
+    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le deuxième niveau d'exportations le plus élevé</t>
+  </si>
+  <si>
+    <t>ExpProdPct3</t>
+  </si>
+  <si>
+    <t>% of exports ascribed to 4-digit HS96 product category with the third highest level of exports</t>
+  </si>
+  <si>
+    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le troisième niveau d'exportations le plus élevé</t>
+  </si>
+  <si>
+    <t>ExpProdPct4</t>
+  </si>
+  <si>
+    <t>% of exports ascribed to 4-digit HS96 product category with the fourth highest level of exports</t>
+  </si>
+  <si>
+    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le quatrième niveau d'exportations le plus élevé</t>
+  </si>
+  <si>
+    <t>ExpProdPct5</t>
+  </si>
+  <si>
+    <t>% of exports ascribed to 4-digit HS96 product category with the fifth highest level of exports</t>
+  </si>
+  <si>
+    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le cinquième niveau d'exportations le plus élevé</t>
+  </si>
+  <si>
+    <t>NumPrdU75</t>
+  </si>
+  <si>
+    <t>Number of products amounting to 75% of total exports</t>
+  </si>
+  <si>
+    <t>Nombre de produits exportés représentant 75% des exportations totales</t>
+  </si>
+  <si>
+    <t>NumPrdU90</t>
+  </si>
+  <si>
+    <t>Number of products amounting to 90% of total exports</t>
+  </si>
+  <si>
+    <t>Nombre de produits exportés représentant 90% des exportations totales</t>
   </si>
   <si>
     <t>TotExpPerGDP</t>
   </si>
   <si>
-    <t>Value of total exports of goods and services as % of GDP</t>
+    <t>Value of total exports of goods and services as a % of GDP</t>
   </si>
   <si>
     <t>Valeur totale des exportations de biens et services en % du PIB</t>
   </si>
   <si>
-    <t>NumPrdU75</t>
-  </si>
-  <si>
-    <t>Number of products amounting to 75% of total exports</t>
-  </si>
-  <si>
-    <t>Nombre de produits exportés représentant 75% des exportations totales</t>
-  </si>
-  <si>
-    <t>NumPrdU90</t>
-  </si>
-  <si>
-    <t>Number of products amounting to 90% of total exports</t>
-  </si>
-  <si>
-    <t>Nombre de produits exportés représentant 90% des exportations totales</t>
-  </si>
-  <si>
     <t>RECExpPct</t>
   </si>
   <si>
@@ -690,40 +1425,40 @@
     <t>Commerce intra-continental de biens intermédiaires en % du total des échanges de biens intermédiaires</t>
   </si>
   <si>
-    <t>BFPLBP6PGD</t>
-  </si>
-  <si>
-    <t>Portfolio investment inflows as % of GDP</t>
-  </si>
-  <si>
-    <t>Entrées d'investissement de portefeuille en % du PIB</t>
+    <t>PortfolioInFlPGD</t>
+  </si>
+  <si>
+    <t>Portfolio investment inflows as a % of GDP</t>
+  </si>
+  <si>
+    <t>Entrées des investissements de portefeuille en % du PIB</t>
   </si>
   <si>
     <t>ODAPGD</t>
   </si>
   <si>
-    <t>Net Official Development Assistance (ODA) inflows as % of GDP</t>
-  </si>
-  <si>
-    <t>Apports nets d'aide publique au développement (APD) en % du PIB</t>
+    <t>Net Official Development Assistance (ODA) inflows as a % of GDP</t>
+  </si>
+  <si>
+    <t>Entrées nettes d'aide publique au développement (APD) en % du PIB</t>
   </si>
   <si>
     <t>UNCTADFDIPGD</t>
   </si>
   <si>
-    <t>Foreign Direct Investment (FDI) inflows as % of GDP</t>
-  </si>
-  <si>
-    <t>Entrées d’investissement direct étranger (IDE) en % du PIB</t>
+    <t>Foreign Direct Investment (FDI) inflows as a % of GDP</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) en % du PIB</t>
   </si>
   <si>
     <t>RemitPGD</t>
   </si>
   <si>
-    <t>Remittances inflows as % of GDP</t>
-  </si>
-  <si>
-    <t>Entrées de fonds privées en % du PIB</t>
+    <t>Remittances inflows as a % of GDP</t>
+  </si>
+  <si>
+    <t>Entrées de transferts des migrants en % du PIB</t>
   </si>
   <si>
     <t>TotalFinInflowsPGD</t>
@@ -732,16 +1467,16 @@
     <t>Total financial inflows as a % of GDP</t>
   </si>
   <si>
-    <t>Entrées de capitaux totales en % du PIB</t>
-  </si>
-  <si>
-    <t>BFPLBP6</t>
+    <t>Entrées financières totales en % du PIB</t>
+  </si>
+  <si>
+    <t>PortfolioInFl</t>
   </si>
   <si>
     <t>Portfolio investment inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées d'investissement de portefeuille (millions de dollars US)</t>
+    <t>Entrées des investissements de portefeuille (millions USD)</t>
   </si>
   <si>
     <t>ODA</t>
@@ -750,7 +1485,7 @@
     <t>Net Official Development Assistance (ODA) inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Apports nets d'aide publique au développement (APD) (millions de dollars US)</t>
+    <t>Entrées nettes d'aide publique au développement (APD) (millions USD)</t>
   </si>
   <si>
     <t>UNCTADFDI</t>
@@ -759,7 +1494,7 @@
     <t>Foreign Direct Investment (FDI) inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées d’investissement direct étranger (IDE) (millions de dollars US)</t>
+    <t>Entrées d’investissements directs étrangers (IDE) (millions USD)</t>
   </si>
   <si>
     <t>Remit</t>
@@ -768,7 +1503,7 @@
     <t>Remittances inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées de fonds privées (millions de dollars US)</t>
+    <t>Entrées de transferts des migrants (millions USD)</t>
   </si>
   <si>
     <t>TotalFinInflows</t>
@@ -777,349 +1512,151 @@
     <t>Total financial inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées de capitaux totales (millions de dollars US)</t>
-  </si>
-  <si>
-    <t>PopUrban</t>
-  </si>
-  <si>
-    <t>Urban Population (thousands)</t>
-  </si>
-  <si>
-    <t>Population urbaine (milliers)</t>
-  </si>
-  <si>
-    <t>PopRural</t>
-  </si>
-  <si>
-    <t>Rural Population (thousands)</t>
-  </si>
-  <si>
-    <t>Population rurale (milliers)</t>
-  </si>
-  <si>
-    <t>IntermCitPop</t>
-  </si>
-  <si>
-    <t>Population living in urban agglomerations of 300,000 to 1 million inhabitants (thousands)</t>
-  </si>
-  <si>
-    <t>Population vivant dans des agglomérations urbaines de 300,000 à plus d'un million d'habitants</t>
-  </si>
-  <si>
-    <t>IntermCitNum</t>
-  </si>
-  <si>
-    <t>Number of urban agglomerations of 300,000 to 1 million inhabitants</t>
-  </si>
-  <si>
-    <t>Nombre d'agglomérations urbaines de 300 000 à plus d'un million d'habitants</t>
-  </si>
-  <si>
-    <t>PrimCitPop</t>
-  </si>
-  <si>
-    <t>Population living in urban agglomerations of over 1 million inhabitants (thousands)</t>
-  </si>
-  <si>
-    <t>Population vivant dans des agglomérations urbaines de plus d'un million d'habitants</t>
-  </si>
-  <si>
-    <t>PrimCitNum</t>
-  </si>
-  <si>
-    <t>Number of urban agglomerations of over 1 million inhabitants</t>
-  </si>
-  <si>
-    <t>Nombre d'agglomérations urbaines de plus d'un million d'habitants</t>
-  </si>
-  <si>
-    <t>OldDepRatio</t>
-  </si>
-  <si>
-    <t>Old-age dependency ratio 65+/(15-64)*100</t>
-  </si>
-  <si>
-    <t>Taux de dépendance des personnes âgées 65+/(15-64)*100</t>
-  </si>
-  <si>
-    <t>ChildDepRatio</t>
-  </si>
-  <si>
-    <t>Child dependency ratio &lt;15/(15-64)*100</t>
-  </si>
-  <si>
-    <t>Taux de dépendance des enfants à charge &lt;15/(15-64)*100</t>
-  </si>
-  <si>
-    <t>TotDepRatio</t>
-  </si>
-  <si>
-    <t>Total dependency ratio (Child dependency ratio + Old-age dependency ratio)</t>
-  </si>
-  <si>
-    <t>Taux de dépendance total (taux de dépendance des enfants + taux de dépendance des personnes âgées)</t>
-  </si>
-  <si>
-    <t>LifeExpTot</t>
-  </si>
-  <si>
-    <t>Life expectancy at birth (years)</t>
-  </si>
-  <si>
-    <t>Espérance de vie à la naissance (années)</t>
-  </si>
-  <si>
-    <t>LifeLadder</t>
-  </si>
-  <si>
-    <t>Cantril life ladder</t>
-  </si>
-  <si>
-    <t>Échelle de satisfaction existentielle Cantril</t>
-  </si>
-  <si>
-    <t>NegativeAffect</t>
-  </si>
-  <si>
-    <t>Negative affect</t>
-  </si>
-  <si>
-    <t>Affect négatif</t>
-  </si>
-  <si>
-    <t>PositiveAffect</t>
-  </si>
-  <si>
-    <t>Positive affect</t>
-  </si>
-  <si>
-    <t>Affect positif</t>
-  </si>
-  <si>
-    <t>FreedomLife</t>
-  </si>
-  <si>
-    <t>Freedom to make life choices</t>
-  </si>
-  <si>
-    <t>Liberté de faire des choix de vie</t>
-  </si>
-  <si>
-    <t>SocialSupp</t>
-  </si>
-  <si>
-    <t>Social support</t>
-  </si>
-  <si>
-    <t>Soutien sociale</t>
-  </si>
-  <si>
-    <t>LifeExpMal</t>
-  </si>
-  <si>
-    <t>Male life expectancy at birth (years)</t>
-  </si>
-  <si>
-    <t>Espérance de vie des hommes à la naissance (années)</t>
-  </si>
-  <si>
-    <t>LifeExpFem</t>
-  </si>
-  <si>
-    <t>Female life expectancy at birth (years)</t>
-  </si>
-  <si>
-    <t>Espérance de vie des femmes à la naissance (années)</t>
-  </si>
-  <si>
-    <t>TotFert</t>
-  </si>
-  <si>
-    <t>Total fertility (live births per woman)</t>
-  </si>
-  <si>
-    <t>Taux de fécondité (naissances vivantes par femme)</t>
-  </si>
-  <si>
-    <t>Mort01</t>
-  </si>
-  <si>
-    <t>Infant mortality rate (infant deaths per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Taux de mortalité infantile (décès infantiles pour 1,000 naissances vivantes)</t>
-  </si>
-  <si>
-    <t>Mort05</t>
-  </si>
-  <si>
-    <t>Under-five mortality (deaths under age five per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortalité des moins de cinq ans (décès des moins de cinq ans pour 1,000 naissances vivantes)</t>
-  </si>
-  <si>
-    <t>Mort40</t>
-  </si>
-  <si>
-    <t>Probability of dying before age 40 (deaths under age 40 per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Probabilité de mourir avant 40 ans (morts avant l'âge de 40 ans pour 1 000 naissances vivantes)</t>
-  </si>
-  <si>
-    <t>GHI</t>
-  </si>
-  <si>
-    <t>Global Hunger Index</t>
-  </si>
-  <si>
-    <t>Indice de la faim dans le monde</t>
-  </si>
-  <si>
-    <t>LRAG15T24GPI</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, indice de parité entre les sexes (IPS)</t>
-  </si>
-  <si>
-    <t>LRAG15T24M</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, male (%)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe masculin (%)</t>
-  </si>
-  <si>
-    <t>LRAG15T99F</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des adultes de 15 ans et plus, femmes (%)</t>
-  </si>
-  <si>
-    <t>LRAG15T24F</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, female (%)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe féminin (%)</t>
-  </si>
-  <si>
-    <t>LRAG15T99GPI</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des adultes de 15 ans et plus, indice de parité hommes-femmes (IPS)</t>
-  </si>
-  <si>
-    <t>LRAG15T99</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, both sexes (%)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des adultes de 15 ans et plus, les deux sexes (%)</t>
-  </si>
-  <si>
-    <t>LRAG15T99M</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des adultes de 15 ans et plus, masculin (%)</t>
-  </si>
-  <si>
-    <t>LRAG15T24</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, both sexes (%)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, les deux sexes (%)</t>
-  </si>
-  <si>
-    <t>IntntSubsPer100</t>
-  </si>
-  <si>
-    <t>Fixed-broadband subscriptions</t>
-  </si>
-  <si>
-    <t>Abonnements Internet à haut débit fixe</t>
-  </si>
-  <si>
-    <t>IntntUsePct</t>
-  </si>
-  <si>
-    <t>Percentage of Individuals using the Internet</t>
-  </si>
-  <si>
-    <t>Pourcentage d'individus utilisant l'Internet</t>
-  </si>
-  <si>
-    <t>MobileSubsPer100</t>
-  </si>
-  <si>
-    <t>Mobile-cellular telephone subscriptions per 100 inhabitants</t>
-  </si>
-  <si>
-    <t>Abonnements téléphone mobile et cellulaire par 100 habitants</t>
-  </si>
-  <si>
-    <t>PhoneSubsPer100</t>
-  </si>
-  <si>
-    <t>Fixed-telephone subscriptions per 100 inhabitants</t>
-  </si>
-  <si>
-    <t>Abonnements téléphone fixe par 100 habitants</t>
+    <t>Entrées financières totales (millions USD)</t>
   </si>
   <si>
     <t>CountryArea</t>
   </si>
   <si>
-    <t>Land area in square km</t>
-  </si>
-  <si>
-    <t>Superficie en km2</t>
-  </si>
-  <si>
-    <t>ArabLand</t>
-  </si>
-  <si>
-    <t>Arable land as % of total land area</t>
-  </si>
-  <si>
-    <t>Terre arable en % de la superficie totale</t>
-  </si>
-  <si>
-    <t>NitFert</t>
-  </si>
-  <si>
-    <t>Nitrogen fertilizers used for agriculture</t>
-  </si>
-  <si>
-    <t>Engrais azotés utilisés pour l'agriculture</t>
-  </si>
-  <si>
-    <t>NitFertPerHa</t>
-  </si>
-  <si>
-    <t>Nitrogen Fertilizer used for agriculture per ha of arable land</t>
-  </si>
-  <si>
-    <t>Engrais azoté utilisé pour l'agriculture par ha de terre arable</t>
+    <t>Country Area (thousands of ha)</t>
+  </si>
+  <si>
+    <t>Superficie (milliers d'hectares)</t>
+  </si>
+  <si>
+    <t>AgricLand</t>
+  </si>
+  <si>
+    <t>Agricultural land (thousands of ha)</t>
+  </si>
+  <si>
+    <t>Terres agricoles (milliers d'hectares)</t>
+  </si>
+  <si>
+    <t>CropLand</t>
+  </si>
+  <si>
+    <t>Cropland (thousands of ha)</t>
+  </si>
+  <si>
+    <t>Terres cultivées (milliers d'hectares)</t>
+  </si>
+  <si>
+    <t>ForestLand</t>
+  </si>
+  <si>
+    <t>Forest land (thousands of ha)</t>
+  </si>
+  <si>
+    <t>Terres forestières (milliers d'hectares)</t>
+  </si>
+  <si>
+    <t>InlndWtrs</t>
+  </si>
+  <si>
+    <t>Inland waters (thousands of ha)</t>
+  </si>
+  <si>
+    <t>Eaux intérieures (milliers d'hectares)</t>
+  </si>
+  <si>
+    <t>AgricProd</t>
+  </si>
+  <si>
+    <t>Agricultural Production (millions of USD)</t>
+  </si>
+  <si>
+    <t>Production agricole (millions USD)</t>
+  </si>
+  <si>
+    <t>CerealProd</t>
+  </si>
+  <si>
+    <t>Cereal Production (millions of USD)</t>
+  </si>
+  <si>
+    <t>Production céréalière (millions USD)</t>
+  </si>
+  <si>
+    <t>CropProd</t>
+  </si>
+  <si>
+    <t>Crops Production (millions of USD)</t>
+  </si>
+  <si>
+    <t>Production des cultures (millions USD)</t>
+  </si>
+  <si>
+    <t>FoodProd</t>
+  </si>
+  <si>
+    <t>Food Production (millions of USD)</t>
+  </si>
+  <si>
+    <t>Production alimentaire (millions USD)</t>
+  </si>
+  <si>
+    <t>LivStkProd</t>
+  </si>
+  <si>
+    <t>Livestock Production (millions of USD)</t>
+  </si>
+  <si>
+    <t>Production animale (millions USD)</t>
+  </si>
+  <si>
+    <t>NFoodProd</t>
+  </si>
+  <si>
+    <t>Non Food Agricultural Production (millions of USD)</t>
+  </si>
+  <si>
+    <t>Production agricole non alimentaire (millions USD)</t>
+  </si>
+  <si>
+    <t>FoodSupp</t>
+  </si>
+  <si>
+    <t>Food supply (kcal/capita/day)</t>
+  </si>
+  <si>
+    <t>Approvisionnement alimentaire (kcal / habitant / jour)</t>
+  </si>
+  <si>
+    <t>NitUse</t>
+  </si>
+  <si>
+    <t>Agricultural use of nutrient nitrogen (tonnes)</t>
+  </si>
+  <si>
+    <t>Usage agricole d'azote nutritif (tonnes)</t>
+  </si>
+  <si>
+    <t>NitUseArea</t>
+  </si>
+  <si>
+    <t>Agricultural use of nutrient nitrogen per area of cropland (tonnes/ha)</t>
+  </si>
+  <si>
+    <t>Usage agricole d'azote nutritif par superficie de terres cultivées (tonnes / ha)</t>
+  </si>
+  <si>
+    <t>CarbStock</t>
+  </si>
+  <si>
+    <t>Carbon stock in living biomass (forests, millions of tonnes)</t>
+  </si>
+  <si>
+    <t>Stock de carbone dans la biomasse vivante (forêts, millions de tonnes)</t>
+  </si>
+  <si>
+    <t>TotAgGHG</t>
+  </si>
+  <si>
+    <t>Total GHG emissions from agriculture (CO2-equivalent gigagrams)</t>
+  </si>
+  <si>
+    <t>Émissions totales de GES de l'agriculture (gigagrammes d'équivalent CO2)</t>
   </si>
 </sst>
 </file>
@@ -1447,15 +1984,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="72.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1581,1226 +2119,1898 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C84" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C86" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C89" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C92" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C95" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C98" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C101" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C103" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B104" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C104" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C105" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B106" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B107" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C107" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B108" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C108" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B109" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C109" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B110" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C110" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B111" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C111" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B112" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C112" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B113" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C113" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B114" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C114" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B115" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C115" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B116" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C116" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B117" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C117" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B118" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C118" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B119" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C119" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C121" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>359</v>
+      </c>
+      <c r="B122" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>362</v>
+      </c>
+      <c r="B123" t="s">
         <v>363</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C123" t="s">
         <v>364</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>365</v>
       </c>
+      <c r="B124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>371</v>
+      </c>
+      <c r="B126" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>380</v>
+      </c>
+      <c r="B129" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>383</v>
+      </c>
+      <c r="B130" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>386</v>
+      </c>
+      <c r="B131" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>389</v>
+      </c>
+      <c r="B132" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>392</v>
+      </c>
+      <c r="B133" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>395</v>
+      </c>
+      <c r="B134" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>398</v>
+      </c>
+      <c r="B135" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>410</v>
+      </c>
+      <c r="B139" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>413</v>
+      </c>
+      <c r="B140" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>416</v>
+      </c>
+      <c r="B141" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>419</v>
+      </c>
+      <c r="B142" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>422</v>
+      </c>
+      <c r="B143" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>425</v>
+      </c>
+      <c r="B144" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>428</v>
+      </c>
+      <c r="B145" t="s">
+        <v>429</v>
+      </c>
+      <c r="C145" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>431</v>
+      </c>
+      <c r="B146" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>434</v>
+      </c>
+      <c r="B147" t="s">
+        <v>435</v>
+      </c>
+      <c r="C147" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>437</v>
+      </c>
+      <c r="B148" t="s">
+        <v>438</v>
+      </c>
+      <c r="C148" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>440</v>
+      </c>
+      <c r="B149" t="s">
+        <v>441</v>
+      </c>
+      <c r="C149" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>443</v>
+      </c>
+      <c r="B150" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>446</v>
+      </c>
+      <c r="B151" t="s">
+        <v>447</v>
+      </c>
+      <c r="C151" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>449</v>
+      </c>
+      <c r="B152" t="s">
+        <v>450</v>
+      </c>
+      <c r="C152" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>452</v>
+      </c>
+      <c r="B153" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>455</v>
+      </c>
+      <c r="B154" t="s">
+        <v>456</v>
+      </c>
+      <c r="C154" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>458</v>
+      </c>
+      <c r="B155" t="s">
+        <v>459</v>
+      </c>
+      <c r="C155" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>461</v>
+      </c>
+      <c r="B156" t="s">
+        <v>462</v>
+      </c>
+      <c r="C156" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>464</v>
+      </c>
+      <c r="B157" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>467</v>
+      </c>
+      <c r="B158" t="s">
+        <v>468</v>
+      </c>
+      <c r="C158" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>470</v>
+      </c>
+      <c r="B159" t="s">
+        <v>471</v>
+      </c>
+      <c r="C159" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>473</v>
+      </c>
+      <c r="B160" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>476</v>
+      </c>
+      <c r="B161" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>485</v>
+      </c>
+      <c r="B164" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>488</v>
+      </c>
+      <c r="B165" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>491</v>
+      </c>
+      <c r="B166" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" t="s">
+        <v>495</v>
+      </c>
+      <c r="C167" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>497</v>
+      </c>
+      <c r="B168" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>500</v>
+      </c>
+      <c r="B169" t="s">
+        <v>501</v>
+      </c>
+      <c r="C169" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>503</v>
+      </c>
+      <c r="B170" t="s">
+        <v>504</v>
+      </c>
+      <c r="C170" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>506</v>
+      </c>
+      <c r="B171" t="s">
+        <v>507</v>
+      </c>
+      <c r="C171" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>509</v>
+      </c>
+      <c r="B172" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>512</v>
+      </c>
+      <c r="B173" t="s">
+        <v>513</v>
+      </c>
+      <c r="C173" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>515</v>
+      </c>
+      <c r="B174" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>518</v>
+      </c>
+      <c r="B175" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>521</v>
+      </c>
+      <c r="B176" t="s">
+        <v>522</v>
+      </c>
+      <c r="C176" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>524</v>
+      </c>
+      <c r="B177" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>527</v>
+      </c>
+      <c r="B178" t="s">
+        <v>528</v>
+      </c>
+      <c r="C178" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>530</v>
+      </c>
+      <c r="B179" t="s">
+        <v>531</v>
+      </c>
+      <c r="C179" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>533</v>
+      </c>
+      <c r="B180" t="s">
+        <v>534</v>
+      </c>
+      <c r="C180" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>536</v>
+      </c>
+      <c r="B181" t="s">
+        <v>537</v>
+      </c>
+      <c r="C181" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>539</v>
+      </c>
+      <c r="B182" t="s">
+        <v>540</v>
+      </c>
+      <c r="C182" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>542</v>
+      </c>
+      <c r="B183" t="s">
+        <v>543</v>
+      </c>
+      <c r="C183" t="s">
+        <v>544</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C183"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
